--- a/MainTop/02.03.2025/new.xlsx
+++ b/MainTop/02.03.2025/new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\02.03.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BBEFD9-3425-4A36-9CD5-9C8923752090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D21AE3-943A-40AB-B438-8D901187FD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
